--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_NoEng_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_NoEng_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>231.8230133056641</v>
+        <v>231.5391998291016</v>
       </c>
       <c r="I2" t="n">
-        <v>50.82686996459961</v>
+        <v>54.60783386230469</v>
       </c>
       <c r="J2" t="n">
-        <v>468.3565063476562</v>
+        <v>463.9788513183594</v>
       </c>
       <c r="K2" t="n">
-        <v>124.8664093017578</v>
+        <v>124.8179016113281</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>240.6828460693359</v>
+        <v>238.4272918701172</v>
       </c>
       <c r="I3" t="n">
-        <v>64.41809844970703</v>
+        <v>61.65005493164062</v>
       </c>
       <c r="J3" t="n">
-        <v>481.4393310546875</v>
+        <v>473.9020385742188</v>
       </c>
       <c r="K3" t="n">
-        <v>133.4676361083984</v>
+        <v>134.1231994628906</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>253.2126007080078</v>
+        <v>253.8679351806641</v>
       </c>
       <c r="I4" t="n">
-        <v>78.31416320800781</v>
+        <v>74.67821502685547</v>
       </c>
       <c r="J4" t="n">
-        <v>476.4869384765625</v>
+        <v>475.2618713378906</v>
       </c>
       <c r="K4" t="n">
-        <v>151.2593536376953</v>
+        <v>152.2861938476562</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>272.6028442382812</v>
+        <v>272.6677551269531</v>
       </c>
       <c r="I5" t="n">
-        <v>88.417724609375</v>
+        <v>89.96990966796875</v>
       </c>
       <c r="J5" t="n">
-        <v>455.7381896972656</v>
+        <v>460.3809814453125</v>
       </c>
       <c r="K5" t="n">
-        <v>173.0869293212891</v>
+        <v>181.2023773193359</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>289.1531066894531</v>
+        <v>287.7246398925781</v>
       </c>
       <c r="I6" t="n">
-        <v>83.65389251708984</v>
+        <v>83.68067932128906</v>
       </c>
       <c r="J6" t="n">
-        <v>423.9610290527344</v>
+        <v>424.3888244628906</v>
       </c>
       <c r="K6" t="n">
-        <v>185.7071990966797</v>
+        <v>184.4388122558594</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>229.6676635742188</v>
+        <v>231.7876281738281</v>
       </c>
       <c r="I7" t="n">
-        <v>43.97752380371094</v>
+        <v>42.48955154418945</v>
       </c>
       <c r="J7" t="n">
-        <v>423.8115234375</v>
+        <v>426.5777282714844</v>
       </c>
       <c r="K7" t="n">
-        <v>98.06028747558594</v>
+        <v>99.82170867919922</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>229.1209869384766</v>
+        <v>231.2609710693359</v>
       </c>
       <c r="I8" t="n">
-        <v>44.46023178100586</v>
+        <v>41.34633255004883</v>
       </c>
       <c r="J8" t="n">
-        <v>436.4338989257812</v>
+        <v>437.9242858886719</v>
       </c>
       <c r="K8" t="n">
-        <v>106.1704406738281</v>
+        <v>106.8985290527344</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>233.3483123779297</v>
+        <v>232.8238525390625</v>
       </c>
       <c r="I9" t="n">
-        <v>43.84012985229492</v>
+        <v>42.0601921081543</v>
       </c>
       <c r="J9" t="n">
-        <v>441.8019409179688</v>
+        <v>438.5528564453125</v>
       </c>
       <c r="K9" t="n">
-        <v>116.5823822021484</v>
+        <v>115.8561553955078</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>238.0086212158203</v>
+        <v>237.6968536376953</v>
       </c>
       <c r="I10" t="n">
-        <v>42.70608901977539</v>
+        <v>43.91985702514648</v>
       </c>
       <c r="J10" t="n">
-        <v>427.5560302734375</v>
+        <v>432.9406127929688</v>
       </c>
       <c r="K10" t="n">
-        <v>130.8961029052734</v>
+        <v>135.2736206054688</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>248.7578430175781</v>
+        <v>248.6327056884766</v>
       </c>
       <c r="I11" t="n">
-        <v>48.68814849853516</v>
+        <v>52.57109069824219</v>
       </c>
       <c r="J11" t="n">
-        <v>414.3369140625</v>
+        <v>408.6598510742188</v>
       </c>
       <c r="K11" t="n">
-        <v>147.3479766845703</v>
+        <v>150.2974090576172</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>267.0801086425781</v>
+        <v>264.9711303710938</v>
       </c>
       <c r="I12" t="n">
-        <v>52.50067138671875</v>
+        <v>51.9207763671875</v>
       </c>
       <c r="J12" t="n">
-        <v>386.3313293457031</v>
+        <v>386.1018676757812</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4832763671875</v>
+        <v>158.4338836669922</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>324.8536071777344</v>
+        <v>325.5563659667969</v>
       </c>
       <c r="I13" t="n">
-        <v>77.20260620117188</v>
+        <v>74.83063507080078</v>
       </c>
       <c r="J13" t="n">
-        <v>360.7998046875</v>
+        <v>362.8168334960938</v>
       </c>
       <c r="K13" t="n">
-        <v>166.2131652832031</v>
+        <v>161.1432037353516</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>244.6207580566406</v>
+        <v>244.8213500976562</v>
       </c>
       <c r="I14" t="n">
-        <v>59.19020080566406</v>
+        <v>64.69961547851562</v>
       </c>
       <c r="J14" t="n">
-        <v>183.7867126464844</v>
+        <v>178.5048828125</v>
       </c>
       <c r="K14" t="n">
-        <v>96.832275390625</v>
+        <v>95.24115753173828</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>243.5987243652344</v>
+        <v>244.2075805664062</v>
       </c>
       <c r="I15" t="n">
-        <v>46.58757400512695</v>
+        <v>46.06280899047852</v>
       </c>
       <c r="J15" t="n">
-        <v>273.6883850097656</v>
+        <v>275.4943237304688</v>
       </c>
       <c r="K15" t="n">
-        <v>110.9340133666992</v>
+        <v>111.3479843139648</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>244.4214324951172</v>
+        <v>243.7289276123047</v>
       </c>
       <c r="I16" t="n">
-        <v>38.74932479858398</v>
+        <v>40.89870834350586</v>
       </c>
       <c r="J16" t="n">
-        <v>353.4305419921875</v>
+        <v>354.2091369628906</v>
       </c>
       <c r="K16" t="n">
-        <v>109.0748291015625</v>
+        <v>106.877571105957</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>242.3541107177734</v>
+        <v>243.7054748535156</v>
       </c>
       <c r="I17" t="n">
-        <v>38.26204299926758</v>
+        <v>40.109619140625</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0081481933594</v>
+        <v>402.0755615234375</v>
       </c>
       <c r="K17" t="n">
-        <v>115.1768798828125</v>
+        <v>113.0745544433594</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>242.2324981689453</v>
+        <v>243.5308380126953</v>
       </c>
       <c r="I18" t="n">
-        <v>38.64798355102539</v>
+        <v>37.8274040222168</v>
       </c>
       <c r="J18" t="n">
-        <v>406.3888244628906</v>
+        <v>410.5477905273438</v>
       </c>
       <c r="K18" t="n">
-        <v>120.4834899902344</v>
+        <v>118.9942932128906</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>245.4547424316406</v>
+        <v>246.2652282714844</v>
       </c>
       <c r="I19" t="n">
-        <v>41.39766311645508</v>
+        <v>40.33552932739258</v>
       </c>
       <c r="J19" t="n">
-        <v>394.2157287597656</v>
+        <v>394.3401794433594</v>
       </c>
       <c r="K19" t="n">
-        <v>131.0524597167969</v>
+        <v>133.2121429443359</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>255.1033630371094</v>
+        <v>257.9657592773438</v>
       </c>
       <c r="I20" t="n">
-        <v>45.14973831176758</v>
+        <v>44.79509353637695</v>
       </c>
       <c r="J20" t="n">
-        <v>365.9875183105469</v>
+        <v>367.0536193847656</v>
       </c>
       <c r="K20" t="n">
-        <v>149.7342834472656</v>
+        <v>148.1934204101562</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>297.2765808105469</v>
+        <v>295.9667053222656</v>
       </c>
       <c r="I21" t="n">
-        <v>56.68533325195312</v>
+        <v>54.67563629150391</v>
       </c>
       <c r="J21" t="n">
-        <v>328.0984497070312</v>
+        <v>325.737548828125</v>
       </c>
       <c r="K21" t="n">
-        <v>161.8206939697266</v>
+        <v>159.7937316894531</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>381.6356811523438</v>
+        <v>382.3320007324219</v>
       </c>
       <c r="I22" t="n">
-        <v>96.13847351074219</v>
+        <v>98.11897277832031</v>
       </c>
       <c r="J22" t="n">
-        <v>303.8353271484375</v>
+        <v>298.3443603515625</v>
       </c>
       <c r="K22" t="n">
-        <v>171.4579010009766</v>
+        <v>165.8202056884766</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>250.6483001708984</v>
+        <v>251.9658050537109</v>
       </c>
       <c r="I23" t="n">
-        <v>71.16062164306641</v>
+        <v>72.65249633789062</v>
       </c>
       <c r="J23" t="n">
-        <v>91.19374084472656</v>
+        <v>86.39826202392578</v>
       </c>
       <c r="K23" t="n">
-        <v>78.31534576416016</v>
+        <v>78.12445068359375</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>255.15234375</v>
+        <v>255.6366424560547</v>
       </c>
       <c r="I24" t="n">
-        <v>60.71377563476562</v>
+        <v>61.63002014160156</v>
       </c>
       <c r="J24" t="n">
-        <v>142.9448394775391</v>
+        <v>144.5884857177734</v>
       </c>
       <c r="K24" t="n">
-        <v>92.76695251464844</v>
+        <v>89.42792510986328</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>255.1925048828125</v>
+        <v>256.1838684082031</v>
       </c>
       <c r="I25" t="n">
-        <v>48.15448379516602</v>
+        <v>50.73225402832031</v>
       </c>
       <c r="J25" t="n">
-        <v>195.1744842529297</v>
+        <v>195.1429138183594</v>
       </c>
       <c r="K25" t="n">
-        <v>99.52299499511719</v>
+        <v>102.8594284057617</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>257.4790649414062</v>
+        <v>255.0991363525391</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42678451538086</v>
+        <v>42.67729568481445</v>
       </c>
       <c r="J26" t="n">
-        <v>257.7019653320312</v>
+        <v>256.4334106445312</v>
       </c>
       <c r="K26" t="n">
-        <v>112.8542556762695</v>
+        <v>111.4879837036133</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>257.2723693847656</v>
+        <v>256.2658386230469</v>
       </c>
       <c r="I27" t="n">
-        <v>40.97695541381836</v>
+        <v>39.62138748168945</v>
       </c>
       <c r="J27" t="n">
-        <v>316.9131164550781</v>
+        <v>320.9995422363281</v>
       </c>
       <c r="K27" t="n">
-        <v>109.8059844970703</v>
+        <v>111.3605041503906</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>253.9111175537109</v>
+        <v>254.53076171875</v>
       </c>
       <c r="I28" t="n">
-        <v>41.25264739990234</v>
+        <v>42.18280410766602</v>
       </c>
       <c r="J28" t="n">
-        <v>344.8752136230469</v>
+        <v>342.8157348632812</v>
       </c>
       <c r="K28" t="n">
-        <v>118.6435317993164</v>
+        <v>115.7336196899414</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>259.0382385253906</v>
+        <v>259.2887878417969</v>
       </c>
       <c r="I29" t="n">
-        <v>45.55828857421875</v>
+        <v>46.0672607421875</v>
       </c>
       <c r="J29" t="n">
-        <v>329.4464721679688</v>
+        <v>326.8658752441406</v>
       </c>
       <c r="K29" t="n">
-        <v>134.2106781005859</v>
+        <v>135.8432769775391</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>295.0742492675781</v>
+        <v>294.9024353027344</v>
       </c>
       <c r="I30" t="n">
-        <v>57.85480117797852</v>
+        <v>54.81979751586914</v>
       </c>
       <c r="J30" t="n">
-        <v>309.4265441894531</v>
+        <v>313.70654296875</v>
       </c>
       <c r="K30" t="n">
-        <v>156.7548980712891</v>
+        <v>152.6977386474609</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>369.89794921875</v>
+        <v>369.0373229980469</v>
       </c>
       <c r="I31" t="n">
-        <v>82.11654663085938</v>
+        <v>82.83430480957031</v>
       </c>
       <c r="J31" t="n">
-        <v>286.9469909667969</v>
+        <v>287.2537231445312</v>
       </c>
       <c r="K31" t="n">
-        <v>181.5471801757812</v>
+        <v>180.4378356933594</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>257.374755859375</v>
+        <v>256.5660400390625</v>
       </c>
       <c r="I32" t="n">
-        <v>78.34477996826172</v>
+        <v>80.8575439453125</v>
       </c>
       <c r="J32" t="n">
-        <v>42.20940399169922</v>
+        <v>40.31565475463867</v>
       </c>
       <c r="K32" t="n">
-        <v>72.09675598144531</v>
+        <v>71.009033203125</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>264.2189025878906</v>
+        <v>262.4422302246094</v>
       </c>
       <c r="I33" t="n">
-        <v>70.80522918701172</v>
+        <v>69.22422790527344</v>
       </c>
       <c r="J33" t="n">
-        <v>67.79637908935547</v>
+        <v>71.49409484863281</v>
       </c>
       <c r="K33" t="n">
-        <v>77.09632110595703</v>
+        <v>78.94235992431641</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>262.0033569335938</v>
+        <v>266.0318603515625</v>
       </c>
       <c r="I34" t="n">
-        <v>61.36770248413086</v>
+        <v>63.74878692626953</v>
       </c>
       <c r="J34" t="n">
-        <v>102.3741912841797</v>
+        <v>101.3760299682617</v>
       </c>
       <c r="K34" t="n">
-        <v>82.53489685058594</v>
+        <v>83.48406982421875</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>265.3163757324219</v>
+        <v>265.0867309570312</v>
       </c>
       <c r="I35" t="n">
-        <v>53.47209548950195</v>
+        <v>52.07174301147461</v>
       </c>
       <c r="J35" t="n">
-        <v>138.6195831298828</v>
+        <v>141.6085357666016</v>
       </c>
       <c r="K35" t="n">
-        <v>96.79158020019531</v>
+        <v>95.18960571289062</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>262.4471130371094</v>
+        <v>262.2469177246094</v>
       </c>
       <c r="I36" t="n">
-        <v>49.60935211181641</v>
+        <v>48.83368301391602</v>
       </c>
       <c r="J36" t="n">
-        <v>190.7671203613281</v>
+        <v>188.1800384521484</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0066452026367</v>
+        <v>108.1520004272461</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>257.2315063476562</v>
+        <v>256.6593933105469</v>
       </c>
       <c r="I37" t="n">
-        <v>48.20757293701172</v>
+        <v>51.44338607788086</v>
       </c>
       <c r="J37" t="n">
-        <v>215.2091674804688</v>
+        <v>215.9975128173828</v>
       </c>
       <c r="K37" t="n">
-        <v>118.5026779174805</v>
+        <v>122.487060546875</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>260.8365478515625</v>
+        <v>259.8184509277344</v>
       </c>
       <c r="I38" t="n">
-        <v>49.75058364868164</v>
+        <v>49.78366470336914</v>
       </c>
       <c r="J38" t="n">
-        <v>245.7056274414062</v>
+        <v>240.3750457763672</v>
       </c>
       <c r="K38" t="n">
-        <v>140.9476623535156</v>
+        <v>140.2102966308594</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>287.80322265625</v>
+        <v>288.5183410644531</v>
       </c>
       <c r="I39" t="n">
-        <v>57.01694488525391</v>
+        <v>56.73388290405273</v>
       </c>
       <c r="J39" t="n">
-        <v>245.0195770263672</v>
+        <v>243.6296844482422</v>
       </c>
       <c r="K39" t="n">
-        <v>151.2940216064453</v>
+        <v>152.3113250732422</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>367.5257873535156</v>
+        <v>369.0260009765625</v>
       </c>
       <c r="I40" t="n">
-        <v>81.60317230224609</v>
+        <v>83.67240905761719</v>
       </c>
       <c r="J40" t="n">
-        <v>270.3644409179688</v>
+        <v>263.9798583984375</v>
       </c>
       <c r="K40" t="n">
-        <v>179.3333129882812</v>
+        <v>177.0326385498047</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>260.8454284667969</v>
+        <v>259.1302490234375</v>
       </c>
       <c r="I41" t="n">
-        <v>79.1956787109375</v>
+        <v>77.62314605712891</v>
       </c>
       <c r="J41" t="n">
-        <v>14.77402019500732</v>
+        <v>12.45283222198486</v>
       </c>
       <c r="K41" t="n">
-        <v>65.75782775878906</v>
+        <v>68.42633819580078</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>269.0855102539062</v>
+        <v>269.5663146972656</v>
       </c>
       <c r="I42" t="n">
-        <v>73.23679351806641</v>
+        <v>73.71841430664062</v>
       </c>
       <c r="J42" t="n">
-        <v>31.2718563079834</v>
+        <v>31.82229232788086</v>
       </c>
       <c r="K42" t="n">
-        <v>72.60318756103516</v>
+        <v>72.53001403808594</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>271.7261047363281</v>
+        <v>273.2509155273438</v>
       </c>
       <c r="I43" t="n">
-        <v>66.39363861083984</v>
+        <v>69.78672027587891</v>
       </c>
       <c r="J43" t="n">
-        <v>47.2282829284668</v>
+        <v>52.48831558227539</v>
       </c>
       <c r="K43" t="n">
-        <v>77.90013885498047</v>
+        <v>80.17078399658203</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>272.0328674316406</v>
+        <v>275.1561279296875</v>
       </c>
       <c r="I44" t="n">
-        <v>64.54387664794922</v>
+        <v>66.55702972412109</v>
       </c>
       <c r="J44" t="n">
-        <v>70.61487579345703</v>
+        <v>71.70384979248047</v>
       </c>
       <c r="K44" t="n">
-        <v>85.35569000244141</v>
+        <v>85.67397308349609</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>269.1864013671875</v>
+        <v>268.3426818847656</v>
       </c>
       <c r="I45" t="n">
-        <v>58.3827018737793</v>
+        <v>55.14544677734375</v>
       </c>
       <c r="J45" t="n">
-        <v>103.4654846191406</v>
+        <v>100.8487396240234</v>
       </c>
       <c r="K45" t="n">
-        <v>96.49247741699219</v>
+        <v>98.30423736572266</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>261.9821472167969</v>
+        <v>260.4103393554688</v>
       </c>
       <c r="I46" t="n">
-        <v>55.38137435913086</v>
+        <v>58.88386917114258</v>
       </c>
       <c r="J46" t="n">
-        <v>153.8105010986328</v>
+        <v>143.33154296875</v>
       </c>
       <c r="K46" t="n">
-        <v>123.9337158203125</v>
+        <v>117.4001693725586</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>257.748291015625</v>
+        <v>254.5955963134766</v>
       </c>
       <c r="I47" t="n">
-        <v>57.57913589477539</v>
+        <v>58.35524368286133</v>
       </c>
       <c r="J47" t="n">
-        <v>165.9208831787109</v>
+        <v>171.376220703125</v>
       </c>
       <c r="K47" t="n">
-        <v>151.1845092773438</v>
+        <v>151.4153137207031</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>292.9096984863281</v>
+        <v>292.5968017578125</v>
       </c>
       <c r="I48" t="n">
-        <v>59.5073127746582</v>
+        <v>57.6737174987793</v>
       </c>
       <c r="J48" t="n">
-        <v>210.7941741943359</v>
+        <v>212.5795745849609</v>
       </c>
       <c r="K48" t="n">
-        <v>166.7156066894531</v>
+        <v>166.3220367431641</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>363.8135070800781</v>
+        <v>361.6145324707031</v>
       </c>
       <c r="I49" t="n">
-        <v>82.19587707519531</v>
+        <v>79.50565338134766</v>
       </c>
       <c r="J49" t="n">
-        <v>237.0121154785156</v>
+        <v>238.5370330810547</v>
       </c>
       <c r="K49" t="n">
-        <v>185.3996429443359</v>
+        <v>178.2675628662109</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>276.7440490722656</v>
+        <v>275.877197265625</v>
       </c>
       <c r="I50" t="n">
-        <v>78.54270935058594</v>
+        <v>76.4124755859375</v>
       </c>
       <c r="J50" t="n">
-        <v>-13.43948745727539</v>
+        <v>-13.31726455688477</v>
       </c>
       <c r="K50" t="n">
-        <v>71.07764434814453</v>
+        <v>77.36260223388672</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>279.0605773925781</v>
+        <v>277.0935668945312</v>
       </c>
       <c r="I51" t="n">
-        <v>71.94107055664062</v>
+        <v>69.95070648193359</v>
       </c>
       <c r="J51" t="n">
-        <v>-5.069617748260498</v>
+        <v>-4.877154350280762</v>
       </c>
       <c r="K51" t="n">
-        <v>74.83298492431641</v>
+        <v>77.07078552246094</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>283.0364074707031</v>
+        <v>283.6643981933594</v>
       </c>
       <c r="I52" t="n">
-        <v>67.69364929199219</v>
+        <v>66.30177307128906</v>
       </c>
       <c r="J52" t="n">
-        <v>4.161697387695312</v>
+        <v>0.9537415504455566</v>
       </c>
       <c r="K52" t="n">
-        <v>76.70902252197266</v>
+        <v>79.02059936523438</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>280.0111999511719</v>
+        <v>281.5748596191406</v>
       </c>
       <c r="I53" t="n">
-        <v>64.60972595214844</v>
+        <v>61.04421615600586</v>
       </c>
       <c r="J53" t="n">
-        <v>20.21284294128418</v>
+        <v>22.54399299621582</v>
       </c>
       <c r="K53" t="n">
-        <v>86.03440856933594</v>
+        <v>81.19674682617188</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>275.8031616210938</v>
+        <v>272.2088928222656</v>
       </c>
       <c r="I54" t="n">
-        <v>56.52634048461914</v>
+        <v>57.4871711730957</v>
       </c>
       <c r="J54" t="n">
-        <v>41.56294631958008</v>
+        <v>40.78667449951172</v>
       </c>
       <c r="K54" t="n">
-        <v>95.45325469970703</v>
+        <v>96.82535552978516</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>261.782958984375</v>
+        <v>263.4940185546875</v>
       </c>
       <c r="I55" t="n">
-        <v>59.26932144165039</v>
+        <v>59.31555938720703</v>
       </c>
       <c r="J55" t="n">
-        <v>74.0140380859375</v>
+        <v>70.04682922363281</v>
       </c>
       <c r="K55" t="n">
-        <v>120.6629791259766</v>
+        <v>115.3207321166992</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>255.8849487304688</v>
+        <v>256.603759765625</v>
       </c>
       <c r="I56" t="n">
-        <v>61.68285751342773</v>
+        <v>61.63615036010742</v>
       </c>
       <c r="J56" t="n">
-        <v>121.6953659057617</v>
+        <v>112.4783096313477</v>
       </c>
       <c r="K56" t="n">
-        <v>158.6760101318359</v>
+        <v>160.2873992919922</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>291.7535400390625</v>
+        <v>291.3204650878906</v>
       </c>
       <c r="I57" t="n">
-        <v>60.40269088745117</v>
+        <v>60.11487197875977</v>
       </c>
       <c r="J57" t="n">
-        <v>154.8986358642578</v>
+        <v>159.1892395019531</v>
       </c>
       <c r="K57" t="n">
-        <v>171.4153442382812</v>
+        <v>174.9401245117188</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>354.3498840332031</v>
+        <v>355.1439208984375</v>
       </c>
       <c r="I58" t="n">
-        <v>80.91605377197266</v>
+        <v>78.70084381103516</v>
       </c>
       <c r="J58" t="n">
-        <v>197.2390289306641</v>
+        <v>199.0036010742188</v>
       </c>
       <c r="K58" t="n">
-        <v>175.4736633300781</v>
+        <v>183.9660034179688</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>291.0371704101562</v>
+        <v>291.7186584472656</v>
       </c>
       <c r="I59" t="n">
-        <v>69.58868408203125</v>
+        <v>72.71083831787109</v>
       </c>
       <c r="J59" t="n">
-        <v>-37.22345733642578</v>
+        <v>-37.14580535888672</v>
       </c>
       <c r="K59" t="n">
-        <v>84.45210266113281</v>
+        <v>82.62397003173828</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>289.5270385742188</v>
+        <v>290.7902526855469</v>
       </c>
       <c r="I60" t="n">
-        <v>67.17488861083984</v>
+        <v>67.68405914306641</v>
       </c>
       <c r="J60" t="n">
-        <v>-35.23316955566406</v>
+        <v>-36.09859466552734</v>
       </c>
       <c r="K60" t="n">
-        <v>87.14913177490234</v>
+        <v>85.51227569580078</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>289.5162353515625</v>
+        <v>287.4084777832031</v>
       </c>
       <c r="I61" t="n">
-        <v>65.03456878662109</v>
+        <v>61.28426361083984</v>
       </c>
       <c r="J61" t="n">
-        <v>-19.7492618560791</v>
+        <v>-21.45900344848633</v>
       </c>
       <c r="K61" t="n">
-        <v>92.22371673583984</v>
+        <v>88.67585754394531</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>284.3150024414062</v>
+        <v>284.7762756347656</v>
       </c>
       <c r="I62" t="n">
-        <v>64.33270263671875</v>
+        <v>57.16701126098633</v>
       </c>
       <c r="J62" t="n">
-        <v>-11.16706943511963</v>
+        <v>-7.205195426940918</v>
       </c>
       <c r="K62" t="n">
-        <v>97.49613189697266</v>
+        <v>98.72291564941406</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>267.7498474121094</v>
+        <v>266.3667907714844</v>
       </c>
       <c r="I63" t="n">
-        <v>59.15526962280273</v>
+        <v>58.88110733032227</v>
       </c>
       <c r="J63" t="n">
-        <v>11.038649559021</v>
+        <v>11.68749904632568</v>
       </c>
       <c r="K63" t="n">
-        <v>120.3036880493164</v>
+        <v>118.6023941040039</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>258.8734130859375</v>
+        <v>261.4749450683594</v>
       </c>
       <c r="I64" t="n">
-        <v>58.71995544433594</v>
+        <v>61.58174133300781</v>
       </c>
       <c r="J64" t="n">
-        <v>57.01928329467773</v>
+        <v>57.33503723144531</v>
       </c>
       <c r="K64" t="n">
-        <v>161.0339965820312</v>
+        <v>155.8152465820312</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>292.7850646972656</v>
+        <v>292.402587890625</v>
       </c>
       <c r="I65" t="n">
-        <v>64.08416748046875</v>
+        <v>63.49343872070312</v>
       </c>
       <c r="J65" t="n">
-        <v>97.04225158691406</v>
+        <v>100.2980194091797</v>
       </c>
       <c r="K65" t="n">
-        <v>182.6731567382812</v>
+        <v>180.4252471923828</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>305.6274719238281</v>
+        <v>305.9671020507812</v>
       </c>
       <c r="I66" t="n">
-        <v>68.32301330566406</v>
+        <v>70.20578002929688</v>
       </c>
       <c r="J66" t="n">
-        <v>-84.70096588134766</v>
+        <v>-85.62224578857422</v>
       </c>
       <c r="K66" t="n">
-        <v>95.97565460205078</v>
+        <v>95.37352752685547</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>301.2527770996094</v>
+        <v>300.6726989746094</v>
       </c>
       <c r="I67" t="n">
-        <v>61.99928665161133</v>
+        <v>63.78689575195312</v>
       </c>
       <c r="J67" t="n">
-        <v>-76.92971038818359</v>
+        <v>-74.29644012451172</v>
       </c>
       <c r="K67" t="n">
-        <v>97.64791107177734</v>
+        <v>94.41646575927734</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>289.8868103027344</v>
+        <v>290.9715576171875</v>
       </c>
       <c r="I68" t="n">
-        <v>58.80532455444336</v>
+        <v>59.27223587036133</v>
       </c>
       <c r="J68" t="n">
-        <v>-59.92873764038086</v>
+        <v>-58.27266311645508</v>
       </c>
       <c r="K68" t="n">
-        <v>102.6455535888672</v>
+        <v>105.3927764892578</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>280.5593872070312</v>
+        <v>278.2540283203125</v>
       </c>
       <c r="I69" t="n">
-        <v>59.43323135375977</v>
+        <v>60.53894424438477</v>
       </c>
       <c r="J69" t="n">
-        <v>-29.30957984924316</v>
+        <v>-28.57284545898438</v>
       </c>
       <c r="K69" t="n">
-        <v>118.2314147949219</v>
+        <v>118.7127456665039</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>268.5427856445312</v>
+        <v>270.1720886230469</v>
       </c>
       <c r="I70" t="n">
-        <v>63.10809707641602</v>
+        <v>64.35511779785156</v>
       </c>
       <c r="J70" t="n">
-        <v>9.101543426513672</v>
+        <v>2.544533729553223</v>
       </c>
       <c r="K70" t="n">
-        <v>148.1030578613281</v>
+        <v>144.0655364990234</v>
       </c>
     </row>
   </sheetData>
